--- a/src/collection/python/data/greenbook_excel/gRPCE_1985_Last.xlsx
+++ b/src/collection/python/data/greenbook_excel/gRPCE_1985_Last.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -713,6 +713,30 @@
   </si>
   <si>
     <t>gRPCE_20131212</t>
+  </si>
+  <si>
+    <t>gRPCE_20140123</t>
+  </si>
+  <si>
+    <t>gRPCE_20140312</t>
+  </si>
+  <si>
+    <t>gRPCE_20140423</t>
+  </si>
+  <si>
+    <t>gRPCE_20140611</t>
+  </si>
+  <si>
+    <t>gRPCE_20140723</t>
+  </si>
+  <si>
+    <t>gRPCE_20140910</t>
+  </si>
+  <si>
+    <t>gRPCE_20141022</t>
+  </si>
+  <si>
+    <t>gRPCE_20141210</t>
   </si>
 </sst>
 </file>
@@ -1743,6 +1767,30 @@
       <c r="HY1" t="s">
         <v>232</v>
       </c>
+      <c r="HZ1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>235</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>236</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -10427,6 +10475,18 @@
       <c r="HY191">
         <v>1.8</v>
       </c>
+      <c r="HZ191">
+        <v>1.8</v>
+      </c>
+      <c r="IA191">
+        <v>1.8</v>
+      </c>
+      <c r="IB191">
+        <v>1.8</v>
+      </c>
+      <c r="IC191">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="192" x14ac:dyDescent="0.25">
       <c r="A192">
@@ -10489,6 +10549,21 @@
       <c r="HY192">
         <v>1.4</v>
       </c>
+      <c r="HZ192">
+        <v>2</v>
+      </c>
+      <c r="IA192">
+        <v>2</v>
+      </c>
+      <c r="IB192">
+        <v>2</v>
+      </c>
+      <c r="IC192">
+        <v>2</v>
+      </c>
+      <c r="ID192">
+        <v>2</v>
+      </c>
     </row>
     <row r="193" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -10551,6 +10626,21 @@
       <c r="HY193">
         <v>3.2</v>
       </c>
+      <c r="HZ193">
+        <v>4</v>
+      </c>
+      <c r="IA193">
+        <v>2.6</v>
+      </c>
+      <c r="IB193">
+        <v>3.3</v>
+      </c>
+      <c r="IC193">
+        <v>3.3</v>
+      </c>
+      <c r="ID193">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="194" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -10583,6 +10673,21 @@
       <c r="HY194">
         <v>2.8</v>
       </c>
+      <c r="HZ194">
+        <v>3.1</v>
+      </c>
+      <c r="IA194">
+        <v>2.6</v>
+      </c>
+      <c r="IB194">
+        <v>2.5</v>
+      </c>
+      <c r="IC194">
+        <v>3.1</v>
+      </c>
+      <c r="ID194">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -10615,6 +10720,30 @@
       <c r="HY195">
         <v>3.2</v>
       </c>
+      <c r="HZ195">
+        <v>3.4</v>
+      </c>
+      <c r="IA195">
+        <v>3.7</v>
+      </c>
+      <c r="IB195">
+        <v>3.8</v>
+      </c>
+      <c r="IC195">
+        <v>3</v>
+      </c>
+      <c r="ID195">
+        <v>2.1</v>
+      </c>
+      <c r="IE195">
+        <v>2.5</v>
+      </c>
+      <c r="IF195">
+        <v>2.5</v>
+      </c>
+      <c r="IG195">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="196" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -10647,6 +10776,30 @@
       <c r="HY196">
         <v>3.4</v>
       </c>
+      <c r="HZ196">
+        <v>3.6</v>
+      </c>
+      <c r="IA196">
+        <v>3.8</v>
+      </c>
+      <c r="IB196">
+        <v>4</v>
+      </c>
+      <c r="IC196">
+        <v>3.7</v>
+      </c>
+      <c r="ID196">
+        <v>3.4</v>
+      </c>
+      <c r="IE196">
+        <v>2</v>
+      </c>
+      <c r="IF196">
+        <v>1.9</v>
+      </c>
+      <c r="IG196">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="197" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -10679,6 +10832,30 @@
       <c r="HY197">
         <v>3.9</v>
       </c>
+      <c r="HZ197">
+        <v>3.9</v>
+      </c>
+      <c r="IA197">
+        <v>3.9</v>
+      </c>
+      <c r="IB197">
+        <v>4.1</v>
+      </c>
+      <c r="IC197">
+        <v>4.1</v>
+      </c>
+      <c r="ID197">
+        <v>3.7</v>
+      </c>
+      <c r="IE197">
+        <v>3.4</v>
+      </c>
+      <c r="IF197">
+        <v>3.4</v>
+      </c>
+      <c r="IG197">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="198" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -10693,6 +10870,30 @@
       <c r="HY198">
         <v>3.9</v>
       </c>
+      <c r="HZ198">
+        <v>4.1</v>
+      </c>
+      <c r="IA198">
+        <v>3.9</v>
+      </c>
+      <c r="IB198">
+        <v>4.2</v>
+      </c>
+      <c r="IC198">
+        <v>3.8</v>
+      </c>
+      <c r="ID198">
+        <v>3.7</v>
+      </c>
+      <c r="IE198">
+        <v>3.3</v>
+      </c>
+      <c r="IF198">
+        <v>3</v>
+      </c>
+      <c r="IG198">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="199" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -10707,6 +10908,30 @@
       <c r="HY199">
         <v>4</v>
       </c>
+      <c r="HZ199">
+        <v>4</v>
+      </c>
+      <c r="IA199">
+        <v>3.8</v>
+      </c>
+      <c r="IB199">
+        <v>3.8</v>
+      </c>
+      <c r="IC199">
+        <v>3.5</v>
+      </c>
+      <c r="ID199">
+        <v>3.5</v>
+      </c>
+      <c r="IE199">
+        <v>3</v>
+      </c>
+      <c r="IF199">
+        <v>3</v>
+      </c>
+      <c r="IG199">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="200" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -10721,6 +10946,30 @@
       <c r="HY200">
         <v>3.8</v>
       </c>
+      <c r="HZ200">
+        <v>3.8</v>
+      </c>
+      <c r="IA200">
+        <v>3.6</v>
+      </c>
+      <c r="IB200">
+        <v>3.6</v>
+      </c>
+      <c r="IC200">
+        <v>3.3</v>
+      </c>
+      <c r="ID200">
+        <v>3.3</v>
+      </c>
+      <c r="IE200">
+        <v>2.9</v>
+      </c>
+      <c r="IF200">
+        <v>3</v>
+      </c>
+      <c r="IG200">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="201" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -10734,6 +10983,106 @@
       </c>
       <c r="HY201">
         <v>3.9</v>
+      </c>
+      <c r="HZ201">
+        <v>3.7</v>
+      </c>
+      <c r="IA201">
+        <v>3.5</v>
+      </c>
+      <c r="IB201">
+        <v>3.4</v>
+      </c>
+      <c r="IC201">
+        <v>3.2</v>
+      </c>
+      <c r="ID201">
+        <v>3.2</v>
+      </c>
+      <c r="IE201">
+        <v>3</v>
+      </c>
+      <c r="IF201">
+        <v>2.9</v>
+      </c>
+      <c r="IG201">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="202" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2016.1</v>
+      </c>
+      <c r="IE202">
+        <v>2.9</v>
+      </c>
+      <c r="IF202">
+        <v>2.8</v>
+      </c>
+      <c r="IG202">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="203" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2016.2</v>
+      </c>
+      <c r="IE203">
+        <v>2.9</v>
+      </c>
+      <c r="IF203">
+        <v>2.8</v>
+      </c>
+      <c r="IG203">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="204" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2016.3</v>
+      </c>
+      <c r="IE204">
+        <v>2.8</v>
+      </c>
+      <c r="IF204">
+        <v>2.7</v>
+      </c>
+      <c r="IG204">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="205" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2016.4</v>
+      </c>
+      <c r="IE205">
+        <v>2.7</v>
+      </c>
+      <c r="IF205">
+        <v>2.6</v>
+      </c>
+      <c r="IG205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2017.1</v>
+      </c>
+    </row>
+    <row r="207" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2017.2</v>
+      </c>
+    </row>
+    <row r="208" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2017.3</v>
+      </c>
+    </row>
+    <row r="209" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2017.4</v>
       </c>
     </row>
   </sheetData>
